--- a/xlsx/馬爾他_intext.xlsx
+++ b/xlsx/馬爾他_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="718">
   <si>
     <t>馬爾他</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_馬爾他</t>
+    <t>体育运动_体育运动_欧洲议会_馬爾他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
@@ -788,10 +788,34 @@
     <t>摩纳哥</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -908,10 +932,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -920,6 +944,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -956,10 +986,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -1034,18 +1064,18 @@
     <t>賽普勒斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1070,10 +1100,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1118,16 +1148,22 @@
     <t>法罗群岛</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1136,10 +1172,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -2481,7 +2517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I393"/>
+  <dimension ref="A1:I399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6276,7 +6312,7 @@
         <v>252</v>
       </c>
       <c r="G131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6363,7 +6399,7 @@
         <v>258</v>
       </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -6392,7 +6428,7 @@
         <v>260</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6421,7 +6457,7 @@
         <v>262</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6450,7 +6486,7 @@
         <v>264</v>
       </c>
       <c r="G137" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -6479,7 +6515,7 @@
         <v>266</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -6537,7 +6573,7 @@
         <v>270</v>
       </c>
       <c r="G140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -6595,7 +6631,7 @@
         <v>274</v>
       </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6653,7 +6689,7 @@
         <v>278</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -6682,7 +6718,7 @@
         <v>280</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6711,7 +6747,7 @@
         <v>282</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -6740,7 +6776,7 @@
         <v>284</v>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6769,7 +6805,7 @@
         <v>286</v>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6798,7 +6834,7 @@
         <v>288</v>
       </c>
       <c r="G149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -6827,7 +6863,7 @@
         <v>290</v>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -6856,7 +6892,7 @@
         <v>292</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6885,7 +6921,7 @@
         <v>294</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6914,7 +6950,7 @@
         <v>296</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6943,7 +6979,7 @@
         <v>298</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6972,7 +7008,7 @@
         <v>300</v>
       </c>
       <c r="G155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -7001,7 +7037,7 @@
         <v>302</v>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -7030,7 +7066,7 @@
         <v>304</v>
       </c>
       <c r="G157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -7059,7 +7095,7 @@
         <v>306</v>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -7088,7 +7124,7 @@
         <v>308</v>
       </c>
       <c r="G159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -7117,7 +7153,7 @@
         <v>310</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -7175,7 +7211,7 @@
         <v>314</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -7233,7 +7269,7 @@
         <v>318</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7262,7 +7298,7 @@
         <v>320</v>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7291,7 +7327,7 @@
         <v>322</v>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7407,7 +7443,7 @@
         <v>330</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -7436,7 +7472,7 @@
         <v>332</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7465,7 +7501,7 @@
         <v>334</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -7494,7 +7530,7 @@
         <v>336</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -7523,7 +7559,7 @@
         <v>338</v>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -7552,7 +7588,7 @@
         <v>340</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7581,7 +7617,7 @@
         <v>342</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -7639,7 +7675,7 @@
         <v>346</v>
       </c>
       <c r="G178" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -7668,7 +7704,7 @@
         <v>348</v>
       </c>
       <c r="G179" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -7697,7 +7733,7 @@
         <v>350</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -7755,7 +7791,7 @@
         <v>354</v>
       </c>
       <c r="G182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -7784,7 +7820,7 @@
         <v>356</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7813,7 +7849,7 @@
         <v>358</v>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7842,7 +7878,7 @@
         <v>360</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7900,7 +7936,7 @@
         <v>364</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7929,7 +7965,7 @@
         <v>366</v>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7952,13 +7988,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7981,13 +8017,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -8010,10 +8046,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8039,13 +8075,13 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8068,13 +8104,13 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -8097,10 +8133,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>167</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>168</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8161,7 +8197,7 @@
         <v>380</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -8219,7 +8255,7 @@
         <v>384</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8364,7 +8400,7 @@
         <v>394</v>
       </c>
       <c r="G203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -8451,7 +8487,7 @@
         <v>400</v>
       </c>
       <c r="G206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -8480,7 +8516,7 @@
         <v>402</v>
       </c>
       <c r="G207" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -8509,7 +8545,7 @@
         <v>404</v>
       </c>
       <c r="G208" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -8538,7 +8574,7 @@
         <v>406</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -8625,7 +8661,7 @@
         <v>412</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -8654,7 +8690,7 @@
         <v>414</v>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8683,7 +8719,7 @@
         <v>416</v>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8944,7 +8980,7 @@
         <v>434</v>
       </c>
       <c r="G223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -9025,10 +9061,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9054,10 +9090,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9083,13 +9119,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -9112,13 +9148,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -9141,13 +9177,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -9170,10 +9206,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9199,13 +9235,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>363</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>364</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -9228,10 +9264,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9257,13 +9293,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9286,13 +9322,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>369</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>370</v>
       </c>
       <c r="G235" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9350,7 +9386,7 @@
         <v>458</v>
       </c>
       <c r="G237" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -9408,7 +9444,7 @@
         <v>462</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -9437,7 +9473,7 @@
         <v>464</v>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -9466,7 +9502,7 @@
         <v>466</v>
       </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -9489,13 +9525,13 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>103</v>
+        <v>467</v>
       </c>
       <c r="F242" t="s">
-        <v>104</v>
+        <v>468</v>
       </c>
       <c r="G242" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -9518,13 +9554,13 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G243" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -9547,13 +9583,13 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -9576,10 +9612,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9605,10 +9641,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9634,10 +9670,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9663,13 +9699,13 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>103</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>104</v>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -9692,13 +9728,13 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>321</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>322</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -9721,13 +9757,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -9750,13 +9786,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -9779,13 +9815,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9808,13 +9844,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9837,13 +9873,13 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -9866,13 +9902,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>489</v>
+        <v>331</v>
       </c>
       <c r="F255" t="s">
-        <v>490</v>
+        <v>332</v>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9901,7 +9937,7 @@
         <v>492</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9959,7 +9995,7 @@
         <v>496</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10046,7 +10082,7 @@
         <v>502</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10249,7 +10285,7 @@
         <v>516</v>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10423,7 +10459,7 @@
         <v>528</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11235,7 +11271,7 @@
         <v>584</v>
       </c>
       <c r="G302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -11409,7 +11445,7 @@
         <v>596</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11809,10 +11845,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>355</v>
+        <v>623</v>
       </c>
       <c r="F322" t="s">
-        <v>356</v>
+        <v>624</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11838,10 +11874,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11867,10 +11903,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11896,10 +11932,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11925,10 +11961,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11954,10 +11990,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11983,10 +12019,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>365</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>366</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12099,13 +12135,13 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>255</v>
+        <v>641</v>
       </c>
       <c r="F332" t="s">
-        <v>256</v>
+        <v>642</v>
       </c>
       <c r="G332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12128,10 +12164,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F333" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12157,10 +12193,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F334" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12186,13 +12222,13 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -12215,10 +12251,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12244,13 +12280,13 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F337" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12273,10 +12309,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="F338" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12302,13 +12338,13 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F339" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12331,13 +12367,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>319</v>
+        <v>655</v>
       </c>
       <c r="F340" t="s">
-        <v>320</v>
+        <v>656</v>
       </c>
       <c r="G340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -12360,13 +12396,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>401</v>
+        <v>657</v>
       </c>
       <c r="F341" t="s">
-        <v>402</v>
+        <v>658</v>
       </c>
       <c r="G341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -12389,13 +12425,13 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>415</v>
+        <v>659</v>
       </c>
       <c r="F342" t="s">
-        <v>416</v>
+        <v>660</v>
       </c>
       <c r="G342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -12418,13 +12454,13 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="F343" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="G343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -12447,13 +12483,13 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>127</v>
+        <v>333</v>
       </c>
       <c r="F344" t="s">
-        <v>128</v>
+        <v>334</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -12476,13 +12512,13 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F345" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="G345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -12505,10 +12541,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>657</v>
+        <v>329</v>
       </c>
       <c r="F346" t="s">
-        <v>658</v>
+        <v>330</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -12534,10 +12570,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>659</v>
+        <v>413</v>
       </c>
       <c r="F347" t="s">
-        <v>660</v>
+        <v>414</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -12563,10 +12599,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>661</v>
+        <v>427</v>
       </c>
       <c r="F348" t="s">
-        <v>662</v>
+        <v>428</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -12592,10 +12628,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F349" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12621,10 +12657,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>665</v>
+        <v>127</v>
       </c>
       <c r="F350" t="s">
-        <v>666</v>
+        <v>128</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12656,7 +12692,7 @@
         <v>668</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -12679,13 +12715,13 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>245</v>
+        <v>669</v>
       </c>
       <c r="F352" t="s">
-        <v>246</v>
+        <v>670</v>
       </c>
       <c r="G352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -12708,10 +12744,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -12737,10 +12773,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>435</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>436</v>
+        <v>674</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -12766,13 +12802,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>435</v>
+        <v>675</v>
       </c>
       <c r="F355" t="s">
-        <v>436</v>
+        <v>676</v>
       </c>
       <c r="G355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -12795,10 +12831,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="F356" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12824,13 +12860,13 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>479</v>
+        <v>679</v>
       </c>
       <c r="F357" t="s">
-        <v>480</v>
+        <v>680</v>
       </c>
       <c r="G357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -12853,13 +12889,13 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>475</v>
+        <v>245</v>
       </c>
       <c r="F358" t="s">
-        <v>476</v>
+        <v>246</v>
       </c>
       <c r="G358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -12882,10 +12918,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="F359" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -12911,10 +12947,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>675</v>
+        <v>447</v>
       </c>
       <c r="F360" t="s">
-        <v>676</v>
+        <v>448</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -12940,13 +12976,13 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>677</v>
+        <v>447</v>
       </c>
       <c r="F361" t="s">
-        <v>678</v>
+        <v>448</v>
       </c>
       <c r="G361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -12969,10 +13005,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>247</v>
+        <v>683</v>
       </c>
       <c r="F362" t="s">
-        <v>248</v>
+        <v>684</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -12998,13 +13034,13 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>679</v>
+        <v>491</v>
       </c>
       <c r="F363" t="s">
-        <v>680</v>
+        <v>492</v>
       </c>
       <c r="G363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -13027,13 +13063,13 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>681</v>
+        <v>487</v>
       </c>
       <c r="F364" t="s">
-        <v>682</v>
+        <v>488</v>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13056,10 +13092,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>353</v>
+        <v>685</v>
       </c>
       <c r="F365" t="s">
-        <v>354</v>
+        <v>686</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13085,13 +13121,13 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>353</v>
+        <v>687</v>
       </c>
       <c r="F366" t="s">
-        <v>354</v>
+        <v>688</v>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -13114,10 +13150,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>435</v>
+        <v>689</v>
       </c>
       <c r="F367" t="s">
-        <v>436</v>
+        <v>690</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13143,10 +13179,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>435</v>
+        <v>247</v>
       </c>
       <c r="F368" t="s">
-        <v>436</v>
+        <v>248</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13172,10 +13208,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="F369" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13201,10 +13237,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>479</v>
+        <v>693</v>
       </c>
       <c r="F370" t="s">
-        <v>480</v>
+        <v>694</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13230,13 +13266,13 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>475</v>
+        <v>363</v>
       </c>
       <c r="F371" t="s">
-        <v>476</v>
+        <v>364</v>
       </c>
       <c r="G371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -13259,10 +13295,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>685</v>
+        <v>363</v>
       </c>
       <c r="F372" t="s">
-        <v>686</v>
+        <v>364</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13288,10 +13324,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>673</v>
+        <v>447</v>
       </c>
       <c r="F373" t="s">
-        <v>674</v>
+        <v>448</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13317,10 +13353,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>675</v>
+        <v>447</v>
       </c>
       <c r="F374" t="s">
-        <v>676</v>
+        <v>448</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13346,10 +13382,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>323</v>
+        <v>695</v>
       </c>
       <c r="F375" t="s">
-        <v>324</v>
+        <v>696</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13375,10 +13411,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>321</v>
+        <v>491</v>
       </c>
       <c r="F376" t="s">
-        <v>322</v>
+        <v>492</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13404,10 +13440,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>319</v>
+        <v>487</v>
       </c>
       <c r="F377" t="s">
-        <v>320</v>
+        <v>488</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13433,10 +13469,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>401</v>
+        <v>697</v>
       </c>
       <c r="F378" t="s">
-        <v>402</v>
+        <v>698</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13462,10 +13498,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>415</v>
+        <v>685</v>
       </c>
       <c r="F379" t="s">
-        <v>416</v>
+        <v>686</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13491,10 +13527,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>255</v>
+        <v>687</v>
       </c>
       <c r="F380" t="s">
-        <v>256</v>
+        <v>688</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13520,10 +13556,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>687</v>
+        <v>333</v>
       </c>
       <c r="F381" t="s">
-        <v>688</v>
+        <v>334</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13549,10 +13585,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>657</v>
+        <v>331</v>
       </c>
       <c r="F382" t="s">
-        <v>658</v>
+        <v>332</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13578,10 +13614,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>659</v>
+        <v>329</v>
       </c>
       <c r="F383" t="s">
-        <v>660</v>
+        <v>330</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13607,10 +13643,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>661</v>
+        <v>413</v>
       </c>
       <c r="F384" t="s">
-        <v>662</v>
+        <v>414</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13636,13 +13672,13 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>689</v>
+        <v>427</v>
       </c>
       <c r="F385" t="s">
-        <v>690</v>
+        <v>428</v>
       </c>
       <c r="G385" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -13665,10 +13701,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>691</v>
+        <v>255</v>
       </c>
       <c r="F386" t="s">
-        <v>692</v>
+        <v>256</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13694,10 +13730,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="F387" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13723,10 +13759,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="F388" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13752,10 +13788,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="F389" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -13781,10 +13817,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="F390" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -13816,7 +13852,7 @@
         <v>702</v>
       </c>
       <c r="G391" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -13845,7 +13881,7 @@
         <v>704</v>
       </c>
       <c r="G392" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -13868,10 +13904,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F393" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -13880,6 +13916,180 @@
         <v>4</v>
       </c>
       <c r="I393" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>0</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1</v>
+      </c>
+      <c r="D394" t="n">
+        <v>393</v>
+      </c>
+      <c r="E394" t="s">
+        <v>707</v>
+      </c>
+      <c r="F394" t="s">
+        <v>708</v>
+      </c>
+      <c r="G394" t="n">
+        <v>1</v>
+      </c>
+      <c r="H394" t="s">
+        <v>4</v>
+      </c>
+      <c r="I394" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>0</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1</v>
+      </c>
+      <c r="D395" t="n">
+        <v>394</v>
+      </c>
+      <c r="E395" t="s">
+        <v>709</v>
+      </c>
+      <c r="F395" t="s">
+        <v>710</v>
+      </c>
+      <c r="G395" t="n">
+        <v>1</v>
+      </c>
+      <c r="H395" t="s">
+        <v>4</v>
+      </c>
+      <c r="I395" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>0</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1</v>
+      </c>
+      <c r="D396" t="n">
+        <v>395</v>
+      </c>
+      <c r="E396" t="s">
+        <v>711</v>
+      </c>
+      <c r="F396" t="s">
+        <v>712</v>
+      </c>
+      <c r="G396" t="n">
+        <v>1</v>
+      </c>
+      <c r="H396" t="s">
+        <v>4</v>
+      </c>
+      <c r="I396" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>0</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1</v>
+      </c>
+      <c r="D397" t="n">
+        <v>396</v>
+      </c>
+      <c r="E397" t="s">
+        <v>713</v>
+      </c>
+      <c r="F397" t="s">
+        <v>714</v>
+      </c>
+      <c r="G397" t="n">
+        <v>1</v>
+      </c>
+      <c r="H397" t="s">
+        <v>4</v>
+      </c>
+      <c r="I397" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>0</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1</v>
+      </c>
+      <c r="D398" t="n">
+        <v>397</v>
+      </c>
+      <c r="E398" t="s">
+        <v>715</v>
+      </c>
+      <c r="F398" t="s">
+        <v>716</v>
+      </c>
+      <c r="G398" t="n">
+        <v>5</v>
+      </c>
+      <c r="H398" t="s">
+        <v>4</v>
+      </c>
+      <c r="I398" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>0</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1</v>
+      </c>
+      <c r="D399" t="n">
+        <v>398</v>
+      </c>
+      <c r="E399" t="s">
+        <v>715</v>
+      </c>
+      <c r="F399" t="s">
+        <v>717</v>
+      </c>
+      <c r="G399" t="n">
+        <v>1</v>
+      </c>
+      <c r="H399" t="s">
+        <v>4</v>
+      </c>
+      <c r="I399" t="n">
         <v>3</v>
       </c>
     </row>
